--- a/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4404,7 +4405,6 @@
           <t>宝盈祥瑞养老混合C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>29.79</t>
@@ -4420,6 +4420,1238 @@
       </c>
       <c r="H36" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.0277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.3146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.8116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.4675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5848</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5657,4 +5658,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002601-龙蟒佰利.xlsx
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
